--- a/Sep19/pos_prof/Tables/regions-M_%gdp.xlsx
+++ b/Sep19/pos_prof/Tables/regions-M_%gdp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>M_ETR</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>M_POP</t>
+  </si>
+  <si>
+    <t>M_TotalTax</t>
+  </si>
+  <si>
+    <t>M_CorpTax</t>
   </si>
   <si>
     <t>GFA - Sales</t>
@@ -431,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -477,10 +483,16 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>0.20743390879697</v>
@@ -495,33 +507,39 @@
         <v>2228507768.5</v>
       </c>
       <c r="F2">
+        <v>5453258922371.839</v>
+      </c>
+      <c r="G2">
+        <v>901477052802.8717</v>
+      </c>
+      <c r="H2">
         <v>-0.001052758718666663</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>0.02076114784229396</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>-0.007513403950684199</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>0.007141353114029673</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>-0.0001414503470683202</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>0.002789501065874449</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>-0.0007072517353416228</v>
       </c>
-      <c r="M2">
+      <c r="O2">
         <v>0.01394750532937224</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>0.2130948962122795</v>
@@ -536,33 +554,39 @@
         <v>832566422</v>
       </c>
       <c r="F3">
+        <v>7186470855993.515</v>
+      </c>
+      <c r="G3">
+        <v>480200693963.0637</v>
+      </c>
+      <c r="H3">
         <v>0.06267988378304601</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>0.05636972463996335</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.04287760748645512</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.03863839205646626</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.008421769545203257</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>0.007573926459205486</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.04210884772601621</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>0.03786963229602735</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.2374553544560417</v>
@@ -577,33 +601,39 @@
         <v>573353725</v>
       </c>
       <c r="F4">
+        <v>1002696890625.219</v>
+      </c>
+      <c r="G4">
+        <v>134030001792.1409</v>
+      </c>
+      <c r="H4">
         <v>0.1161292337551156</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>0.3371220707592898</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.1165344707760914</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.2649992278927305</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.01560330978806251</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>0.04529626121139033</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.0780165489403125</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>0.2264813060569516</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0.4293297816364376</v>
@@ -618,33 +648,39 @@
         <v>253949523.25</v>
       </c>
       <c r="F5">
+        <v>241723618867.4443</v>
+      </c>
+      <c r="G5">
+        <v>38152875196.83905</v>
+      </c>
+      <c r="H5">
         <v>-0.03932310297664135</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>-0.02468743395691186</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>-0.03450946315493774</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>-0.02467710353772255</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>-0.005283515078264162</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>-0.003317043154821126</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>-0.02641757539132084</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>-0.01658521577410565</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.2048529706690015</v>
@@ -659,33 +695,39 @@
         <v>358282006.25</v>
       </c>
       <c r="F6">
+        <v>5526698445364.336</v>
+      </c>
+      <c r="G6">
+        <v>408160442622.5067</v>
+      </c>
+      <c r="H6">
         <v>0.1189935476485036</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>0.05033751856223434</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.1526988240789058</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.1065751540945555</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.01598816358898435</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>0.006763429592114213</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.07994081794492107</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>0.0338171479605708</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.3411401792246058</v>
@@ -700,33 +742,39 @@
         <v>1691005608</v>
       </c>
       <c r="F7">
+        <v>457036063703.7742</v>
+      </c>
+      <c r="G7">
+        <v>4932505470.985653</v>
+      </c>
+      <c r="H7">
         <v>-0.06294413702392497</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>0.2437681349839206</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>-0.06969803733895455</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.1363537224630033</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>-0.008457275033757733</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>0.03275307692663382</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>-0.04228637516878865</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>0.1637653846331693</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0.4546822824075114</v>
@@ -738,30 +786,36 @@
         <v>876719000000</v>
       </c>
       <c r="E8">
-        <v>363813169.25</v>
+        <v>366265684.25</v>
       </c>
       <c r="F8">
+        <v>114563677189.0651</v>
+      </c>
+      <c r="G8">
+        <v>24178295225.23782</v>
+      </c>
+      <c r="H8">
         <v>0.003381895033236528</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>0.04082638130332211</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.06959140427605268</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.0947469099241411</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.0004543968315986208</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.00548549796121631</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.002271984157993071</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>0.0274274898060815</v>
       </c>
     </row>
